--- a/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1D6D0-D8AF-4462-AC9B-E467BD2BF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0787D-F40E-4201-B559-6C8A2BAAEA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -337,33 +345,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生效記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:已放行, 2:未放行
+    <t>DefCode = ,AND Item %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>defItemEq3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND Item %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCodeListWithFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DefCode = ,AND Enable = ,AND EffectFlag = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已放行, 1:未放行
 因應L6301放行新增記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode = ,AND Item %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>defItemEq3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND Item %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCodeListWithFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DefCode = ,AND Enable = ,AND EffectFlag = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -997,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1244,7 +1252,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>35</v>
@@ -1256,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1416,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
@@ -1523,7 +1531,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -1531,10 +1539,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>60</v>
@@ -1542,10 +1550,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>50</v>
